--- a/pred_ohlcv/54_21/2020-01-19 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 ENJ ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>91750.15841505519</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>91750.15841505519</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>91750.15841505519</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>90758.75761505519</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>94112.32771505519</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>51382.32771505519</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>77006.57571505519</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>69224.1065150552</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>69224.1065150552</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>66222.33551505521</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>66115.49551505521</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>67106.73011505521</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>42274.75931505521</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>75642.85621505522</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>75455.39651505521</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>65150.69791505521</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>65150.69791505521</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>62110.69791505521</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>62757.6502150552</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>62757.6502150552</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>62757.6502150552</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>62757.6502150552</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>68757.65021505521</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>153682.5155150552</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>128792.1424150552</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>128349.7450150552</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>160411.7259150552</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>154815.0833150552</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>163212.4202150552</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>175408.1348150552</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>176767.8161150552</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>163384.2011150552</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>163384.2011150552</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>163697.0508150552</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>99897.7159150552</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>70526.7109150552</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-152789.7154444792</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-151957.3740444792</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-141047.8735444792</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-180342.7705444792</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-196196.9920248812</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-196096.9920248812</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-253119.6120554087</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-235882.5741554087</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-235893.7963554087</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-238252.4647554087</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-238252.4647554087</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-238252.4647554087</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-238633.4985554087</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-238549.8953554087</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-261360.9548554087</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-261360.9548554087</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-303790.3166554087</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-302525.3166554087</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-314389.8094554087</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-300236.6439554087</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-296245.6320554087</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-297245.6320554087</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-297245.6320554087</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-297245.6320554087</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-290118.2696554087</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-291251.2696554087</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-291251.2696554087</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-294594.1552554088</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 ENJ ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>91430.15841505519</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>91750.15841505519</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>91750.15841505519</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>91750.15841505519</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>90758.75761505519</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>94112.32771505519</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>51382.32771505519</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>77006.57571505519</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>69224.1065150552</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>69224.1065150552</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>66222.33551505521</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>67106.73011505521</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -990,7 +990,7 @@
         <v>75642.85621505522</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>75455.39651505521</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>65150.69791505521</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>65150.69791505521</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>62110.69791505521</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>62757.6502150552</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>62757.6502150552</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>62757.6502150552</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>62757.6502150552</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>68757.65021505521</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>68757.65021505521</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>153682.5155150552</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>153682.5155150552</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>153682.5155150552</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>153682.5155150552</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>149579.2384150552</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>128792.1424150552</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>128349.7450150552</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>175408.1348150552</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>163384.2011150552</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>163384.2011150552</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>165084.2011150552</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>163697.0508150552</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-152789.7154444792</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-151957.3740444792</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-141047.8735444792</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-196196.9920248812</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-196096.9920248812</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-194957.5000554086</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-190147.6165554086</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-253119.6120554087</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-235882.5741554087</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-235893.7963554087</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-238252.4647554087</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-238252.4647554087</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-238252.4647554087</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-238436.1974554087</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-238633.4985554087</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-238549.8953554087</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-261360.9548554087</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-261360.9548554087</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-303790.3166554087</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-302525.3166554087</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-314389.8094554087</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-299389.8094554087</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-300236.6439554087</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-296245.6320554087</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-297245.6320554087</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-297245.6320554087</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-297245.6320554087</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-290118.2696554087</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-291251.2696554087</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-291251.2696554087</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-294594.1552554088</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
